--- a/content/금융 꿀Tip단지.xlsx
+++ b/content/금융 꿀Tip단지.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msyeom/Documents/Singapore/1.Work/GTM/금융세미나/fin_tips/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msyeom/Documents/Singapore/1.Work/GTM/금융세미나/fin_tips/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBBA70C-B441-3E46-A9D9-EC4DBB78B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E9D4FE-C1C2-D544-967E-4B328196BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>금융세미나: 재태크에 대한 질문과 고민을 공유해 주세요. 세미나로 찾아가 답변해 드립니다</t>
   </si>
@@ -210,6 +210,30 @@
   <si>
     <t>별도 문의 시 해당 분야 전문가 소개 가능</t>
   </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>온라인 2차 사전질문</t>
+  </si>
+  <si>
+    <t>싱가포르에 은이나 구리 ETF가 있나요?</t>
+  </si>
+  <si>
+    <t>상장돼 있지 않습니다. https://www.sgx.com/securities/etf-screener 가셔서 Asset class를 Commodity로 두면 원자재 관련 ETF가 '금'만 나옵니다.</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>커버하는 국가가 제일 많은 IBKR에서조차 한국 개별주식 거래가 안 되는 이유는?</t>
+  </si>
+  <si>
+    <t>현재 국내 증권사의 계열사 또는 대주주만 한국 주식거래용 계좌개설을 할 수 있기 때문입니다. 그렇지만 현재 규제완화 중으로, 앞으로 가능해질 수 있습니다. 참고: https://www.kocis.go.kr/koreanet/view.do?seq=1051073</t>
+  </si>
+  <si>
+    <t>2025년 8월 10일</t>
+  </si>
 </sst>
 </file>
 
@@ -273,15 +297,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -294,43 +324,43 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFF6F8F9"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFF6F8F9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,7 +375,7 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,52 +390,7 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,43 +399,13 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF6F8F9"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFF6F8F9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,13 +420,13 @@
         <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
         <color rgb="FFF6F8F9"/>
@@ -488,29 +443,71 @@
       <left style="thin">
         <color rgb="FFF6F8F9"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -527,16 +524,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -550,19 +553,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,27 +575,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -622,9 +649,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -639,15 +666,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="금융_꿀Tip단지" displayName="금융_꿀Tip단지" ref="A3:G11">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="금융_꿀Tip단지" displayName="금융_꿀Tip단지" ref="A3:H13" headerRowDxfId="0">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="세미나 차수"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="세미나 일시"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="질문 No"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="질문 요약"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="질문자 수"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="답변 요약" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="답변 요약" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="바로 실행가능한 팁"/>
+    <tableColumn id="8" xr3:uid="{A88163AF-586B-AF40-91E1-01D39267348A}" name="NEW" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,11 +882,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -913,171 +941,226 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="H3" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12">
+      <c r="G6" s="21"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16">
+      <c r="G7" s="18"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E9" s="8">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="84" x14ac:dyDescent="0.15">
-      <c r="C8" s="9">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="G11" s="18"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="G12" s="21"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="13" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/content/금융 꿀Tip단지.xlsx
+++ b/content/금융 꿀Tip단지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msyeom/Documents/Singapore/1.Work/GTM/금융세미나/fin_tips/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E9D4FE-C1C2-D544-967E-4B328196BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D20FC0-9ED1-D141-91E0-2B574558E5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>금융세미나: 재태크에 대한 질문과 고민을 공유해 주세요. 세미나로 찾아가 답변해 드립니다</t>
   </si>
@@ -234,12 +234,99 @@
   <si>
     <t>2025년 8월 10일</t>
   </si>
+  <si>
+    <t>온라인 2차</t>
+  </si>
+  <si>
+    <t>2025년 8월 28일</t>
+  </si>
+  <si>
+    <t>CPF/SRS 절세 효과가 정말 확정 수익인가요?</t>
+  </si>
+  <si>
+    <t>55세에 CPF에서 무슨 일이 일어나나요?</t>
+  </si>
+  <si>
+    <t>주식 매도 타이밍을 어떻게 잡아야 하나요?</t>
+  </si>
+  <si>
+    <t>매도할 때는 재진입 계획을 반드시 세우고, 본인만의 '잠 못 이루는 기준선'을 정하세요.</t>
+  </si>
+  <si>
+    <t>싱가포르 주식시장만으로 포트폴리오 구성 가능한가요?</t>
+  </si>
+  <si>
+    <t>어렵습니다. 은행주 50% + 리츠 16%로 구성된 배당형 시장이라 성장 포트폴리오 구성이 어렵습니다. 성장을 원한다면 글로벌 주식·ETF 병행이 필요합니다.</t>
+  </si>
+  <si>
+    <t>싱가포르 시장과 함께 글로벌 주식 ETF로 분산투자하세요.</t>
+  </si>
+  <si>
+    <t>비영주권자 SRS 활용법은?</t>
+  </si>
+  <si>
+    <t>사회초년생은 유동성 우선, SRS 납입 과욕하지 마세요.</t>
+  </si>
+  <si>
+    <t>귀국 시 CPF 환급은 어떻게 하나요?</t>
+  </si>
+  <si>
+    <t>귀국 직전 싱가포르 내에서 CPF 환급 절차를 완료하세요.</t>
+  </si>
+  <si>
+    <t>싱가포르 단/중/장기 투자 플랜은?</t>
+  </si>
+  <si>
+    <t>목표와 상황별로 자산을 버킷으로 나누어 기간별 투자 전략을 세우세요.</t>
+  </si>
+  <si>
+    <t>한국 vs 싱가포르 세금 차이는?</t>
+  </si>
+  <si>
+    <t>전략 예시) OA 최소화, SA 극대화, 연 $8,000 탑업으로 절세와 4% 복리 효과를 동시에 누리세요. 단, OA로 주택 매수를 할 경우 다른 전략이 필요합니다.</t>
+  </si>
+  <si>
+    <t>투자상품에 대해 잘 모른다면 CPF IS 투자보다는 안정적인 CPF 기본 이자율(특히 SA/MA 4%)을 선택하세요.</t>
+  </si>
+  <si>
+    <t>싱가포르의 낮은 세율을 활용하되 세부 사항은 세무 전문가와 반드시 상담하세요.</t>
+  </si>
+  <si>
+    <t>본인 한계세율 확인하고 절세하세요. 소득공제 가능한 한도는 연간 CPF $8,000, SRS는 외국인 $35,700, PR $15,300입니다.</t>
+  </si>
+  <si>
+    <t>충격적인 사실입니다. CPF IS 펀드 평균 수익률이 3년 연환산 2.01%로 CPF 기본 이자율(OA 2.5%, SA/MA 4%)보다 낮습니다. 참고) https://imas.org.sg/wp-content/uploads/2025/06/IMAS_Q12025_Performance_RiskMonitoring-report_Final.pdf</t>
+  </si>
+  <si>
+    <t>Schwab 연구에 따르면 20년간 매년 최고점에서만 투자해도 현금 보유자보다 3.2배 더 벌었습니다. 마켓 타이밍이 아니라 시장에 오래 남아있는 것이 성과를 결정합니다. 참고) https://www.schwab.com/learn/story/does-market-timing-work</t>
+  </si>
+  <si>
+    <t>자산관리의 가장 중요한 원칙, "내 돈을 중간에 다른 용도로 쓰지 않기로 한 시간에 대한 적절한 보상을 받아야 마땅함"에 의거하여, 단기(0-2년): MMF 2-3%, 중기(2-7년): 채권펀드/리츠 4-6%, 장기(7년+): 글로벌 주식 8-10%  또는 투자전략 가입으로 나누어 전략을 세우세요. 목적에 따라 이렇게 3개의 '버킷'으로 시간을 나누어 접근하는 것이 핵심입니다. 참고) https://arkifinance.com</t>
+  </si>
+  <si>
+    <t>미래는 알 수 없으므로 우선 SRS 계좌 개설하고 소액(100불이라도) 넣어 두면 좋습니다. 외국인 특별 혜택으로 SRS 10년 보유 후 전액 일시불로 인출하면, 인출액의 50%에 대해서만 과세됩니다. 외국인은 연간 최대 $35,700 소득공제 가능하나 최소 10년의 유동성 제약 있으므로 과욕 금물입니다. 그 이전에 인출하면 5% 패널티가 있습니다. 한계세율이 높은 고소득자일수록 고려해 볼만 합니다. 참고) https://www.iras.gov.sg/taxes/individual-income-tax/basics-of-individual-income-tax/special-tax-schemes/tax-on-srs-withdrawals</t>
+  </si>
+  <si>
+    <t>RA(Retirement Account) 자동 생성되며 SA→OA 순으로 FRS($213,000)까지 채웁니다. FRS 충족 시 65세부터 월 $1,700 평생 수령하는 CPF LIFE가 시작됩니다. 참고) https://www.cpf.gov.sg/service/article/how-much-cpf-payouts-can-i-get-every-month</t>
+  </si>
+  <si>
+    <t>맞습니다. "불입액 × 본인의 소득세 한계 세율"만큼 소득세가 줄어듭니다.  $1,000당 $70~$220 절세 가능합니다. 소득이 높을수록 CPF Top-up과 SRS 추가 불입의 절세율이 더 커집니다. 단, 외국인은 하단 7번 "비영주권자 SRS 활용법"도 꼭 읽어 주세요.</t>
+  </si>
+  <si>
+    <t>싱가포르는 상장주식 양도차익에 대한 과세가 없고, 상속/증여세 면세인 반면 한국은 해외주식 22% 분리과세, 상속/증여세 10~50%입니다. 미국 주식 배당은 싱가포르 30% vs 한국 15% + 금융소득 2천만원 초과 시 종합과세입니다.</t>
+  </si>
+  <si>
+    <t>PR 포기 시 CPF 자동 폐쇄되며 12주 내 송금됩니다. 인출금액에 과세되지 않습니다. 해외 진행 시 공증/아포스티유 필요하므로 귀국 직전 싱가포르 내에서 처리가 유리합니다. 참고) https://www.cpf.gov.sg/member/account-services/account-closure/closing-your-account-when-you-leave-singapore</t>
+  </si>
+  <si>
+    <t>CPF IS 투자상품 vs CPF 기본 이자율 중 뭐가 좋나요?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -262,14 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -515,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -556,37 +635,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -606,21 +729,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -649,9 +757,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -666,16 +774,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="금융_꿀Tip단지" displayName="금융_꿀Tip단지" ref="A3:H13" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="금융_꿀Tip단지" displayName="금융_꿀Tip단지" ref="A3:H22" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="세미나 차수"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="세미나 일시"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="질문 No"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="질문 요약"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="질문자 수"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="세미나 차수" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="세미나 일시" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="질문 No" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="질문 요약" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="질문자 수" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="답변 요약" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="바로 실행가능한 팁"/>
-    <tableColumn id="8" xr3:uid="{A88163AF-586B-AF40-91E1-01D39267348A}" name="NEW" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="바로 실행가능한 팁" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A88163AF-586B-AF40-91E1-01D39267348A}" name="NEW" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,11 +990,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -897,7 +1005,7 @@
     <col min="4" max="4" width="43.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -941,226 +1049,428 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="21">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
+        <v>5</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21">
+        <v>7</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="70" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21">
+        <v>8</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21">
+        <v>9</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E13" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="G13" s="20"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E14" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8">
+      <c r="G15" s="26"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
+      <c r="G16" s="17"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E18" s="8">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:28" ht="84" x14ac:dyDescent="0.15">
-      <c r="C10" s="6">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="84" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8">
+      <c r="G19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:28" ht="28" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="G20" s="17"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E21" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15">
+      <c r="G21" s="26"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E22" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="15" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
